--- a/sorted_data/qui/visualisation/file_for_insitu_classification/qui_insitu.xlsx
+++ b/sorted_data/qui/visualisation/file_for_insitu_classification/qui_insitu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/interrogatives-corpus-work/sorted_data/qui/visualisation/file_for_insitu_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DEB013-C60C-DF4D-BA1F-87DC6538DA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902E986D-F012-E648-A571-BB46C79C8CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-10300" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,10 +865,14 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
